--- a/data/trans_bre/P70D_R_2023-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P70D_R_2023-Provincia-trans_bre.xlsx
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>-1.457281324197454</v>
+        <v>-1.457281324197455</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>-0.8248107147843112</v>
+        <v>-0.8248107147843113</v>
       </c>
     </row>
     <row r="5">
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.18845817407167</v>
+        <v>-4.172415378384149</v>
       </c>
       <c r="D5" s="6" t="inlineStr"/>
     </row>
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.1144652029307855</v>
+        <v>-0.1556017677047354</v>
       </c>
       <c r="D6" s="6" t="inlineStr"/>
     </row>
@@ -597,7 +597,7 @@
         <v>1.540807051793869</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.3686505786714739</v>
+        <v>0.3686505786714737</v>
       </c>
     </row>
     <row r="8">
@@ -608,10 +608,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.698591163103234</v>
+        <v>-2.766472805783875</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4562215268370571</v>
+        <v>-0.4620111201938326</v>
       </c>
     </row>
     <row r="9">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.920737738747437</v>
+        <v>5.613235742218249</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>2.745593086489215</v>
+        <v>2.574290521009704</v>
       </c>
     </row>
     <row r="10">
@@ -640,10 +640,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>3.360934684815339</v>
+        <v>3.360934684815341</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>0.5804981187210729</v>
+        <v>0.5804981187210734</v>
       </c>
     </row>
     <row r="11">
@@ -654,10 +654,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.583237536957069</v>
+        <v>-1.998709830342671</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-0.3605122927401235</v>
+        <v>-0.3209252762841033</v>
       </c>
     </row>
     <row r="12">
@@ -668,10 +668,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.284724185775033</v>
+        <v>9.738412312210762</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>2.620654185479304</v>
+        <v>2.704716776627414</v>
       </c>
     </row>
     <row r="13">
@@ -686,10 +686,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>2.211866039996846</v>
+        <v>2.211866039996849</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.294551830497812</v>
+        <v>0.2945518304978125</v>
       </c>
     </row>
     <row r="14">
@@ -700,10 +700,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-4.610286567156512</v>
+        <v>-4.337701791390822</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4226126290703359</v>
+        <v>-0.394443911500618</v>
       </c>
     </row>
     <row r="15">
@@ -714,10 +714,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>9.447119116880122</v>
+        <v>8.504659831618817</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.1113474304645</v>
+        <v>2.024419257647099</v>
       </c>
     </row>
     <row r="16">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>-1.232190667476392</v>
+        <v>-1.232190667476393</v>
       </c>
       <c r="D16" s="6" t="n">
         <v>-0.2936925233307078</v>
@@ -746,10 +746,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.367786057179798</v>
+        <v>-5.679209969830088</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>-0.7978018980778718</v>
+        <v>-0.8332239808580503</v>
       </c>
     </row>
     <row r="18">
@@ -760,10 +760,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.399323176607506</v>
+        <v>2.087514732344812</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1.418502618743637</v>
+        <v>1.213204147938464</v>
       </c>
     </row>
     <row r="19">
@@ -778,10 +778,10 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>1.053593177748774</v>
+        <v>1.053593177748777</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.1000170178225759</v>
+        <v>0.1000170178225762</v>
       </c>
     </row>
     <row r="20">
@@ -792,10 +792,10 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-5.742758585153617</v>
+        <v>-6.194367411530251</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.4469376033567037</v>
+        <v>-0.4401050341736554</v>
       </c>
     </row>
     <row r="21">
@@ -806,10 +806,10 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>8.561183936531979</v>
+        <v>8.395568937907857</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.206201633132803</v>
+        <v>1.067031824206148</v>
       </c>
     </row>
     <row r="22">
@@ -824,10 +824,10 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.8180640330026819</v>
+        <v>0.8180640330026823</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>0.5531480292686949</v>
+        <v>0.5531480292686953</v>
       </c>
     </row>
     <row r="23">
@@ -838,10 +838,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.480186284495717</v>
+        <v>-1.63978727251455</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>-0.6738242464466915</v>
+        <v>-0.6003087030840234</v>
       </c>
     </row>
     <row r="24">
@@ -852,10 +852,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.675567464797403</v>
+        <v>2.625407536178413</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>4.672020538275933</v>
+        <v>5.653448828780181</v>
       </c>
     </row>
     <row r="25">
@@ -870,10 +870,10 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>4.78382325744773</v>
+        <v>4.783823257447731</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>1.257874704458562</v>
+        <v>1.257874704458563</v>
       </c>
     </row>
     <row r="26">
@@ -884,10 +884,10 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>1.811554172433493</v>
+        <v>1.319193148991628</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.3138005674021796</v>
+        <v>0.2108304294862496</v>
       </c>
     </row>
     <row r="27">
@@ -898,10 +898,10 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>8.330292513374166</v>
+        <v>8.095125348844364</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>3.45913846229541</v>
+        <v>3.113741790311316</v>
       </c>
     </row>
     <row r="28">
@@ -919,7 +919,7 @@
         <v>1.59080912218476</v>
       </c>
       <c r="D28" s="6" t="n">
-        <v>0.3759488805694861</v>
+        <v>0.3759488805694859</v>
       </c>
     </row>
     <row r="29">
@@ -930,10 +930,10 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.0617235638977443</v>
+        <v>0.1676950599585825</v>
       </c>
       <c r="D29" s="6" t="n">
-        <v>0.009697346080325126</v>
+        <v>0.0309174735824938</v>
       </c>
     </row>
     <row r="30">
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.007190582776929</v>
+        <v>2.9867419167599</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>0.8747313710127528</v>
+        <v>0.8117005470765232</v>
       </c>
     </row>
     <row r="31">
